--- a/PlumeShp_PM_H.xlsx
+++ b/PlumeShp_PM_H.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\人工智能产品\AM-天空识别预测模型\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data_Plume_Shape_and_Particle_Concentration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="PlumeShp_PM_H" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlumeShp_PM_H!$A$1:$C$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlumeShp_PM_H!$A$1:$C$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +55,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,7 +128,7 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3083,323 +3083,309 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>43544.583333333336</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="5"/>
+        <v>43545.583333333336</v>
+      </c>
+      <c r="B242" s="2">
+        <v>21</v>
+      </c>
+      <c r="C242" s="5">
+        <v>293.16035229689601</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>43545.333333333336</v>
-      </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="5"/>
+        <v>43545.625</v>
+      </c>
+      <c r="B243" s="2">
+        <v>21</v>
+      </c>
+      <c r="C243" s="5">
+        <v>324.36671497572598</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>43545.583333333336</v>
+        <v>43545.666666666664</v>
       </c>
       <c r="B244" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C244" s="5">
-        <v>293.16035229689601</v>
+        <v>446.33109685129</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>43545.625</v>
+        <v>43545.708333333336</v>
       </c>
       <c r="B245" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C245" s="5">
-        <v>324.36671497572598</v>
+        <v>450.33851616311051</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>43545.666666666664</v>
+        <v>43545.75</v>
       </c>
       <c r="B246" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C246" s="5">
-        <v>446.33109685129</v>
+        <v>636.14422023775103</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>43545.708333333336</v>
+        <v>43546.25</v>
       </c>
       <c r="B247" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C247" s="5">
-        <v>450.33851616311051</v>
+        <v>731.40449449708353</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>43545.75</v>
+        <v>43546.291666666664</v>
       </c>
       <c r="B248" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C248" s="5">
-        <v>636.14422023775103</v>
+        <v>960.47934592530748</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
-        <v>43546.25</v>
+        <v>43546.333333333336</v>
       </c>
       <c r="B249" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C249" s="5">
-        <v>731.40449449708353</v>
+        <v>836.39199458775352</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
-        <v>43546.291666666664</v>
+        <v>43546.375</v>
       </c>
       <c r="B250" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C250" s="5">
-        <v>960.47934592530748</v>
+        <v>1469.48878923035</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
-        <v>43546.333333333336</v>
+        <v>43546.416666666664</v>
       </c>
       <c r="B251" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C251" s="5">
-        <v>836.39199458775352</v>
+        <v>894.85801427186743</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
-        <v>43546.375</v>
+        <v>43546.458333333336</v>
       </c>
       <c r="B252" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C252" s="5">
-        <v>1469.48878923035</v>
+        <v>1009.0828414790805</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
-        <v>43546.416666666664</v>
+        <v>43546.5</v>
       </c>
       <c r="B253" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C253" s="5">
-        <v>894.85801427186743</v>
+        <v>854.23381734467557</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
-        <v>43546.458333333336</v>
+        <v>43546.541666666664</v>
       </c>
       <c r="B254" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C254" s="5">
-        <v>1009.0828414790805</v>
+        <v>817.25937380662549</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
-        <v>43546.5</v>
+        <v>43546.583333333336</v>
       </c>
       <c r="B255" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C255" s="5">
-        <v>854.23381734467557</v>
+        <v>921.37116118217909</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
-        <v>43546.541666666664</v>
+        <v>43546.625</v>
       </c>
       <c r="B256" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C256" s="5">
-        <v>817.25937380662549</v>
+        <v>703.20906759162597</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
-        <v>43546.583333333336</v>
+        <v>43546.666666666664</v>
       </c>
       <c r="B257" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C257" s="5">
-        <v>921.37116118217909</v>
+        <v>686.63026004846643</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
-        <v>43546.625</v>
+        <v>43546.708333333336</v>
       </c>
       <c r="B258" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C258" s="5">
-        <v>703.20906759162597</v>
+        <v>636.37196689012706</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
-        <v>43546.666666666664</v>
+        <v>43546.75</v>
       </c>
       <c r="B259" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C259" s="5">
-        <v>686.63026004846643</v>
+        <v>518.10292707084398</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
-        <v>43546.708333333336</v>
+        <v>43547.25</v>
       </c>
       <c r="B260" s="2">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C260" s="5">
-        <v>636.37196689012706</v>
+        <v>888.79594504731608</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
-        <v>43546.75</v>
+        <v>43547.291666666664</v>
       </c>
       <c r="B261" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C261" s="5">
-        <v>518.10292707084398</v>
+        <v>490.7254724600005</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
-        <v>43547.25</v>
+        <v>43547.333333333336</v>
       </c>
       <c r="B262" s="2">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C262" s="5">
-        <v>888.79594504731608</v>
+        <v>492.79817588124604</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
-        <v>43547.291666666664</v>
+        <v>43547.375</v>
       </c>
       <c r="B263" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C263" s="5">
-        <v>490.7254724600005</v>
+        <v>460.07174713404851</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
-        <v>43547.333333333336</v>
+        <v>43547.416666666664</v>
       </c>
       <c r="B264" s="2">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C264" s="5">
-        <v>492.79817588124604</v>
+        <v>499.24168080105699</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
-        <v>43547.375</v>
+        <v>43547.458333333336</v>
       </c>
       <c r="B265" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C265" s="5">
-        <v>460.07174713404851</v>
+        <v>377.90728950750702</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
-        <v>43547.416666666664</v>
+        <v>43547.5</v>
       </c>
       <c r="B266" s="2">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C266" s="5">
-        <v>499.24168080105699</v>
+        <v>420.79789836490249</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
-        <v>43547.458333333336</v>
+        <v>43547.541666666664</v>
       </c>
       <c r="B267" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C267" s="5">
-        <v>377.90728950750702</v>
+        <v>433.35573669999997</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
-        <v>43547.5</v>
+        <v>43547.583333333336</v>
       </c>
       <c r="B268" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C268" s="5">
-        <v>420.79789836490249</v>
+        <v>421.45789380836101</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
-        <v>43547.541666666664</v>
+        <v>43547.625</v>
       </c>
       <c r="B269" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C269" s="5">
-        <v>433.35573669999997</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
-        <v>43547.583333333336</v>
-      </c>
-      <c r="B270" s="2">
-        <v>8</v>
-      </c>
-      <c r="C270" s="5">
-        <v>421.45789380836101</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
-        <v>43547.625</v>
-      </c>
-      <c r="B271" s="2">
-        <v>6</v>
-      </c>
-      <c r="C271" s="5">
         <v>389.782228513039</v>
       </c>
     </row>

--- a/PlumeShp_PM_H.xlsx
+++ b/PlumeShp_PM_H.xlsx
@@ -85,18 +85,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +108,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,10 +125,13 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2956,7 +2953,7 @@
       <c r="B230" s="7">
         <v>90</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="8">
         <v>607.92045079412901</v>
       </c>
     </row>
@@ -2967,7 +2964,7 @@
       <c r="B231" s="7">
         <v>154</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="8">
         <v>363.57999264254397</v>
       </c>
     </row>
@@ -2978,7 +2975,7 @@
       <c r="B232" s="7">
         <v>118</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="8">
         <v>328.262360335263</v>
       </c>
     </row>
